--- a/صيدليات دكتور مصطفي طلعت_2026-01-15_18-56.xlsx
+++ b/صيدليات دكتور مصطفي طلعت_2026-01-15_18-56.xlsx
@@ -285,9 +285,6 @@
   </si>
   <si>
     <t>TEMPO COOL</t>
-  </si>
-  <si>
-    <t>2:1</t>
   </si>
   <si>
     <t>TOBRIN 0.3% EYE DROPS 5 ML</t>
@@ -2594,13 +2591,13 @@
       <c r="F66" s="7"/>
       <c r="G66" s="7"/>
       <c t="s" r="H66" s="8">
-        <v>92</v>
+        <v>13</v>
       </c>
       <c r="I66" s="8"/>
       <c r="J66" s="8"/>
       <c r="K66" s="8"/>
       <c r="L66" s="9">
-        <v>17.100000000000001</v>
+        <v>-17.09</v>
       </c>
       <c r="M66" s="9"/>
       <c t="s" r="N66" s="7">
@@ -2612,7 +2609,7 @@
         <v>64</v>
       </c>
       <c t="s" r="B67" s="7">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C67" s="7"/>
       <c r="D67" s="7"/>
@@ -2638,7 +2635,7 @@
         <v>65</v>
       </c>
       <c t="s" r="B68" s="7">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C68" s="7"/>
       <c r="D68" s="7"/>
@@ -2664,7 +2661,7 @@
         <v>66</v>
       </c>
       <c t="s" r="B69" s="7">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C69" s="7"/>
       <c r="D69" s="7"/>
@@ -2690,7 +2687,7 @@
         <v>67</v>
       </c>
       <c t="s" r="B70" s="7">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C70" s="7"/>
       <c r="D70" s="7"/>
@@ -2716,7 +2713,7 @@
         <v>68</v>
       </c>
       <c t="s" r="B71" s="7">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C71" s="7"/>
       <c r="D71" s="7"/>
@@ -2742,7 +2739,7 @@
         <v>69</v>
       </c>
       <c t="s" r="B72" s="7">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C72" s="7"/>
       <c r="D72" s="7"/>
@@ -2768,7 +2765,7 @@
         <v>70</v>
       </c>
       <c t="s" r="B73" s="7">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C73" s="7"/>
       <c r="D73" s="7"/>
@@ -2794,7 +2791,7 @@
         <v>71</v>
       </c>
       <c t="s" r="B74" s="7">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C74" s="7"/>
       <c r="D74" s="7"/>
@@ -2802,7 +2799,7 @@
       <c r="F74" s="7"/>
       <c r="G74" s="7"/>
       <c t="s" r="H74" s="8">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="I74" s="8"/>
       <c r="J74" s="8"/>
@@ -2820,7 +2817,7 @@
         <v>72</v>
       </c>
       <c t="s" r="B75" s="7">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C75" s="7"/>
       <c r="D75" s="7"/>
@@ -2846,7 +2843,7 @@
         <v>73</v>
       </c>
       <c t="s" r="B76" s="7">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C76" s="7"/>
       <c r="D76" s="7"/>
@@ -2872,7 +2869,7 @@
         <v>74</v>
       </c>
       <c t="s" r="B77" s="7">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C77" s="7"/>
       <c r="D77" s="7"/>
@@ -2880,7 +2877,7 @@
       <c r="F77" s="7"/>
       <c r="G77" s="7"/>
       <c t="s" r="H77" s="8">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="I77" s="8"/>
       <c r="J77" s="8"/>
@@ -2898,7 +2895,7 @@
         <v>75</v>
       </c>
       <c t="s" r="B78" s="7">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C78" s="7"/>
       <c r="D78" s="7"/>
@@ -2924,7 +2921,7 @@
         <v>76</v>
       </c>
       <c t="s" r="B79" s="7">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C79" s="7"/>
       <c r="D79" s="7"/>
@@ -2950,7 +2947,7 @@
         <v>77</v>
       </c>
       <c t="s" r="B80" s="7">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C80" s="7"/>
       <c r="D80" s="7"/>
@@ -2976,7 +2973,7 @@
         <v>78</v>
       </c>
       <c t="s" r="B81" s="7">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C81" s="7"/>
       <c r="D81" s="7"/>
@@ -3002,7 +2999,7 @@
         <v>79</v>
       </c>
       <c t="s" r="B82" s="7">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C82" s="7"/>
       <c r="D82" s="7"/>
@@ -3010,7 +3007,7 @@
       <c r="F82" s="7"/>
       <c r="G82" s="7"/>
       <c t="s" r="H82" s="8">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="I82" s="8"/>
       <c r="J82" s="8"/>
@@ -3028,7 +3025,7 @@
         <v>80</v>
       </c>
       <c t="s" r="B83" s="7">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C83" s="7"/>
       <c r="D83" s="7"/>
@@ -3036,7 +3033,7 @@
       <c r="F83" s="7"/>
       <c r="G83" s="7"/>
       <c t="s" r="H83" s="8">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="I83" s="8"/>
       <c r="J83" s="8"/>
@@ -3054,7 +3051,7 @@
         <v>81</v>
       </c>
       <c t="s" r="B84" s="7">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C84" s="7"/>
       <c r="D84" s="7"/>
@@ -3080,7 +3077,7 @@
         <v>82</v>
       </c>
       <c t="s" r="B85" s="7">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C85" s="7"/>
       <c r="D85" s="7"/>
@@ -3106,7 +3103,7 @@
         <v>83</v>
       </c>
       <c t="s" r="B86" s="7">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C86" s="7"/>
       <c r="D86" s="7"/>
@@ -3132,7 +3129,7 @@
         <v>84</v>
       </c>
       <c t="s" r="B87" s="7">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C87" s="7"/>
       <c r="D87" s="7"/>
@@ -3158,7 +3155,7 @@
         <v>85</v>
       </c>
       <c t="s" r="B88" s="7">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C88" s="7"/>
       <c r="D88" s="7"/>
@@ -3184,7 +3181,7 @@
         <v>86</v>
       </c>
       <c t="s" r="B89" s="7">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C89" s="7"/>
       <c r="D89" s="7"/>
@@ -3192,7 +3189,7 @@
       <c r="F89" s="7"/>
       <c r="G89" s="7"/>
       <c t="s" r="H89" s="8">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="I89" s="8"/>
       <c r="J89" s="8"/>
@@ -3210,7 +3207,7 @@
         <v>87</v>
       </c>
       <c t="s" r="B90" s="7">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C90" s="7"/>
       <c r="D90" s="7"/>
@@ -3236,7 +3233,7 @@
         <v>88</v>
       </c>
       <c t="s" r="B91" s="7">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C91" s="7"/>
       <c r="D91" s="7"/>
@@ -3262,7 +3259,7 @@
         <v>89</v>
       </c>
       <c t="s" r="B92" s="7">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C92" s="7"/>
       <c r="D92" s="7"/>
@@ -3288,7 +3285,7 @@
         <v>90</v>
       </c>
       <c t="s" r="B93" s="7">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C93" s="7"/>
       <c r="D93" s="7"/>
@@ -3314,7 +3311,7 @@
         <v>91</v>
       </c>
       <c t="s" r="B94" s="7">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C94" s="7"/>
       <c r="D94" s="7"/>
@@ -3340,7 +3337,7 @@
         <v>92</v>
       </c>
       <c t="s" r="B95" s="7">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C95" s="7"/>
       <c r="D95" s="7"/>
@@ -3348,7 +3345,7 @@
       <c r="F95" s="7"/>
       <c r="G95" s="7"/>
       <c t="s" r="H95" s="8">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="I95" s="8"/>
       <c r="J95" s="8"/>
@@ -3363,7 +3360,7 @@
     </row>
     <row r="96" ht="25.5" customHeight="1">
       <c r="K96" s="10">
-        <v>3811.8299999999999</v>
+        <v>3777.6399999999999</v>
       </c>
       <c r="L96" s="10"/>
       <c r="M96" s="10"/>
@@ -3371,19 +3368,19 @@
     </row>
     <row r="97" ht="16.5" customHeight="1">
       <c t="s" r="A97" s="11">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B97" s="11"/>
       <c r="C97" s="11"/>
       <c r="D97" s="11"/>
       <c r="E97" s="11"/>
       <c t="s" r="F97" s="12">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G97" s="12"/>
       <c r="H97" s="13"/>
       <c t="s" r="I97" s="14">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="J97" s="14"/>
       <c r="K97" s="14"/>
